--- a/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons/lesson-17.xlsx
+++ b/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons/lesson-17.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B146"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,166 +2008,154 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>photograph</t>
+          <t>center</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>写真|しゃしん</t>
+          <t>真ん中|まんなか</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>right above...</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>真ん中|まんなか</t>
+          <t>～の真上|～のまうえ</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>right above...</t>
+          <t>midnight</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>～の真上|～のまうえ</t>
+          <t>真夜中|まよなか</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>midnight</t>
+          <t>to walk</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>真夜中|まよなか</t>
+          <t>歩く|あるく</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>to walk</t>
+          <t>sidewalk</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>歩く|あるく</t>
+          <t>歩道|ほどう</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>sidewalk</t>
+          <t>to stroll</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>歩道|ほどう</t>
+          <t>散歩する|さんぽする</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>to stroll</t>
+          <t>one step</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>散歩する|さんぽする</t>
+          <t>一歩|いっぽ</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>one step</t>
+          <t>progress</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>一歩|いっぽ</t>
+          <t>進歩|しんぽ</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>progress</t>
+          <t>realm; field</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>進歩|しんぽ</t>
+          <t>分野|ぶんや</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>realm; field</t>
+          <t>Mr./Ms. Ono</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>分野|ぶんや</t>
+          <t>小野さん|おのさん</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Mr./Ms. Ono</t>
+          <t>Nagano</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>小野さん|おのさん</t>
+          <t>長野|ながの</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Nagano</t>
+          <t>baseball</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>長野|ながの</t>
+          <t>野球|やきゅう</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>baseball</t>
+          <t>vegetable</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
-        <is>
-          <t>野球|やきゅう</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>vegetable</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
         <is>
           <t>野菜|やさい</t>
         </is>
